--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/Display Curve Example.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/Display Curve Example.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3788ED7-3504-4975-8BE2-B4FF8FA0D3E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DisplayCurve" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -980,7 +989,7 @@
       </c>
       <c r="K16" s="8">
         <f t="array" ref="K16:L47">_xll.HLV5r3.Financial.Cache.GetTermCurve(C14)</f>
-        <v>43133</v>
+        <v>43644</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
@@ -1011,7 +1020,7 @@
         <v>-1.325E-3</v>
       </c>
       <c r="K17" s="9">
-        <v>43136</v>
+        <v>43647</v>
       </c>
       <c r="L17" s="2">
         <v>0.99945618630520505</v>
@@ -1028,7 +1037,7 @@
         <v>40786</v>
       </c>
       <c r="D18" s="2">
-        <v>0.93412771631219504</v>
+        <v>0.93382503497138503</v>
       </c>
       <c r="E18" s="12"/>
       <c r="G18" s="9" t="str">
@@ -1038,7 +1047,7 @@
         <v>-1.325E-3</v>
       </c>
       <c r="K18" s="9">
-        <v>43143</v>
+        <v>43654</v>
       </c>
       <c r="L18" s="2">
         <v>0.99819272045082597</v>
@@ -1055,7 +1064,7 @@
         <v>41152</v>
       </c>
       <c r="D19" s="2">
-        <v>0.87380006393556597</v>
+        <v>0.87385856655897998</v>
       </c>
       <c r="E19" s="12"/>
       <c r="G19" s="9" t="str">
@@ -1065,7 +1074,7 @@
         <v>-1.2750000000000001E-3</v>
       </c>
       <c r="K19" s="9">
-        <v>43150</v>
+        <v>43661</v>
       </c>
       <c r="L19" s="2">
         <v>0.99691718844663002</v>
@@ -1082,7 +1091,7 @@
         <v>41516</v>
       </c>
       <c r="D20" s="2">
-        <v>0.796869949226503</v>
+        <v>0.796910926758293</v>
       </c>
       <c r="E20" s="12"/>
       <c r="G20" s="9" t="str">
@@ -1092,10 +1101,10 @@
         <v>-1.225E-3</v>
       </c>
       <c r="K20" s="9">
-        <v>43164</v>
+        <v>43678</v>
       </c>
       <c r="L20" s="2">
-        <v>0.99436828981736103</v>
+        <v>0.99382622878940297</v>
       </c>
       <c r="O20" s="14" t="str">
         <v>IndexTenor</v>
@@ -1109,7 +1118,7 @@
         <v>41880</v>
       </c>
       <c r="D21" s="2">
-        <v>0.74135966057605795</v>
+        <v>0.74139052654175097</v>
       </c>
       <c r="E21" s="12"/>
       <c r="G21" s="9" t="str">
@@ -1119,10 +1128,10 @@
         <v>-1.15E-3</v>
       </c>
       <c r="K21" s="9">
-        <v>43195</v>
+        <v>43710</v>
       </c>
       <c r="L21" s="2">
-        <v>0.98838438565417996</v>
+        <v>0.98764262754466503</v>
       </c>
       <c r="O21" s="14" t="str">
         <v>CurveName</v>
@@ -1136,7 +1145,7 @@
         <v>42247</v>
       </c>
       <c r="D22" s="2">
-        <v>0.68828083382091698</v>
+        <v>0.688309722413877</v>
       </c>
       <c r="E22" s="12"/>
       <c r="G22" s="9" t="str">
@@ -1146,10 +1155,10 @@
         <v>-1E-3</v>
       </c>
       <c r="K22" s="9">
-        <v>43227</v>
+        <v>43739</v>
       </c>
       <c r="L22" s="2">
-        <v>0.98224060326071205</v>
+        <v>0.98205471486988305</v>
       </c>
       <c r="O22" s="14" t="str">
         <v>DependencyDepth</v>
@@ -1163,7 +1172,7 @@
         <v>42978</v>
       </c>
       <c r="D23" s="2">
-        <v>0.60868567098417303</v>
+        <v>0.60871145131569804</v>
       </c>
       <c r="E23" s="12"/>
       <c r="G23" s="9" t="str">
@@ -1173,10 +1182,10 @@
         <v>-8.4999999999999995E-4</v>
       </c>
       <c r="K23" s="9">
-        <v>43258</v>
+        <v>43811</v>
       </c>
       <c r="L23" s="2">
-        <v>0.97756256792210505</v>
+        <v>0.969612278922934</v>
       </c>
       <c r="O23" s="14" t="str">
         <v>Algorithm</v>
@@ -1190,7 +1199,7 @@
         <v>44074</v>
       </c>
       <c r="D24" s="2">
-        <v>0.50491892056186805</v>
+        <v>0.50494242414116097</v>
       </c>
       <c r="E24" s="12"/>
       <c r="G24" s="9" t="e">
@@ -1200,10 +1209,10 @@
         <v>#N/A</v>
       </c>
       <c r="K24" s="9">
-        <v>43349</v>
+        <v>43902</v>
       </c>
       <c r="L24" s="2">
-        <v>0.961831412702007</v>
+        <v>0.95400999011503895</v>
       </c>
       <c r="O24" s="14" t="str">
         <v>Currency</v>
@@ -1227,10 +1236,10 @@
         <v>#N/A</v>
       </c>
       <c r="K25" s="9">
-        <v>43440</v>
+        <v>43993</v>
       </c>
       <c r="L25" s="2">
-        <v>0.945896441806788</v>
+        <v>0.93820690205427404</v>
       </c>
       <c r="O25" s="14" t="str">
         <v>ReferenceCurveUniqueId</v>
@@ -1254,10 +1263,10 @@
         <v>#N/A</v>
       </c>
       <c r="K26" s="9">
-        <v>43531</v>
+        <v>44084</v>
       </c>
       <c r="L26" s="2">
-        <v>0.92993687901658795</v>
+        <v>0.92238078088428399</v>
       </c>
       <c r="O26" s="14" t="str">
         <v>SourceSystem</v>
@@ -1281,10 +1290,10 @@
         <v>#N/A</v>
       </c>
       <c r="K27" s="9">
-        <v>43622</v>
+        <v>44175</v>
       </c>
       <c r="L27" s="2">
-        <v>0.91496982371545998</v>
+        <v>0.907539856985489</v>
       </c>
       <c r="O27" s="14" t="str">
         <v>UniqueIdentifier</v>
@@ -1308,10 +1317,10 @@
         <v>#N/A</v>
       </c>
       <c r="K28" s="9">
-        <v>43713</v>
+        <v>44266</v>
       </c>
       <c r="L28" s="2">
-        <v>0.90053990251875604</v>
+        <v>0.89323229801561499</v>
       </c>
       <c r="O28" s="14" t="str">
         <v>Type</v>
@@ -1335,10 +1344,10 @@
         <v>#N/A</v>
       </c>
       <c r="K29" s="9">
-        <v>43811</v>
+        <v>44357</v>
       </c>
       <c r="L29" s="2">
-        <v>0.88579210401258601</v>
+        <v>0.87965570661622505</v>
       </c>
       <c r="O29" s="14" t="str">
         <v>Domain</v>
@@ -1362,10 +1371,10 @@
         <v>#N/A</v>
       </c>
       <c r="K30" s="9">
-        <v>43902</v>
+        <v>44448</v>
       </c>
       <c r="L30" s="2">
-        <v>0.86973424555057399</v>
+        <v>0.863716076424493</v>
       </c>
       <c r="O30" s="14" t="str">
         <v>MarketName</v>
@@ -1389,10 +1398,10 @@
         <v>#N/A</v>
       </c>
       <c r="K31" s="9">
-        <v>44232</v>
+        <v>44743</v>
       </c>
       <c r="L31" s="2">
-        <v>0.79944052188388304</v>
+        <v>0.79946632822104602</v>
       </c>
       <c r="O31" s="14" t="str">
         <v>BootStrap</v>
@@ -1416,10 +1425,10 @@
         <v>#N/A</v>
       </c>
       <c r="K32" s="9">
-        <v>44599</v>
+        <v>45110</v>
       </c>
       <c r="L32" s="2">
-        <v>0.74427731629914995</v>
+        <v>0.74430734190639702</v>
       </c>
       <c r="O32" s="14" t="str">
         <v>BaseDate</v>
@@ -1443,10 +1452,10 @@
         <v>#N/A</v>
       </c>
       <c r="K33" s="9">
-        <v>44963</v>
+        <v>45474</v>
       </c>
       <c r="L33" s="2">
-        <v>0.69191642468296399</v>
+        <v>0.691944482036565</v>
       </c>
       <c r="O33" s="14" t="str">
         <v>NameSpace</v>
@@ -1470,10 +1479,10 @@
         <v>#N/A</v>
       </c>
       <c r="K34" s="9">
-        <v>45327</v>
+        <v>45839</v>
       </c>
       <c r="L34" s="2">
-        <v>0.65004610723669898</v>
+        <v>0.64994688101800102</v>
       </c>
       <c r="O34" s="14" t="str">
         <v>Function</v>
@@ -1497,10 +1506,10 @@
         <v>#N/A</v>
       </c>
       <c r="K35" s="9">
-        <v>45693</v>
+        <v>46204</v>
       </c>
       <c r="L35" s="2">
-        <v>0.61265105131106601</v>
+        <v>0.61267635729133496</v>
       </c>
       <c r="O35" s="14" t="e">
         <v>#N/A</v>
@@ -1524,10 +1533,10 @@
         <v>#N/A</v>
       </c>
       <c r="K36" s="9">
-        <v>46058</v>
+        <v>46569</v>
       </c>
       <c r="L36" s="2">
-        <v>0.57507243238460704</v>
+        <v>0.57509658731442104</v>
       </c>
       <c r="O36" s="14" t="e">
         <v>#N/A</v>
@@ -1551,10 +1560,10 @@
         <v>#N/A</v>
       </c>
       <c r="K37" s="9">
-        <v>46423</v>
+        <v>46937</v>
       </c>
       <c r="L37" s="2">
-        <v>0.54077232832729505</v>
+        <v>0.5404947704966</v>
       </c>
       <c r="O37" s="14" t="e">
         <v>#N/A</v>
@@ -1578,10 +1587,10 @@
         <v>#N/A</v>
       </c>
       <c r="K38" s="9">
-        <v>46790</v>
+        <v>47301</v>
       </c>
       <c r="L38" s="2">
-        <v>0.50860640694710602</v>
+        <v>0.50862979655500495</v>
       </c>
       <c r="O38" s="14" t="e">
         <v>#N/A</v>
@@ -1605,10 +1614,10 @@
         <v>#N/A</v>
       </c>
       <c r="K39" s="9">
-        <v>48617</v>
+        <v>49128</v>
       </c>
       <c r="L39" s="2">
-        <v>0.37289425315783697</v>
+        <v>0.37291149614024199</v>
       </c>
       <c r="O39" s="14" t="e">
         <v>#N/A</v>
@@ -1632,10 +1641,10 @@
         <v>#N/A</v>
       </c>
       <c r="K40" s="9">
-        <v>50441</v>
+        <v>50952</v>
       </c>
       <c r="L40" s="2">
-        <v>0.27693162401007898</v>
+        <v>0.27694453534777003</v>
       </c>
       <c r="O40" s="14" t="e">
         <v>#N/A</v>
